--- a/group-reports/tables/shahriar-3-1-results-after-queue-test-5.xlsx
+++ b/group-reports/tables/shahriar-3-1-results-after-queue-test-5.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -707,32 +707,32 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20 msec</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>2734</t>
+          <t>2734 msec</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>1275.62</t>
+          <t>1275.62 msec</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1301 usec</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>1637.5k</t>
+          <t>1637.5k usec</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>8686.07</t>
+          <t>8686.07 usec</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
@@ -829,32 +829,32 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5 msec</t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2464 msec</t>
         </is>
       </c>
       <c r="N4" s="1" t="inlineStr">
         <is>
-          <t>1272.88</t>
+          <t>1272.88 msec</t>
         </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>1362 usec</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>1705.3k</t>
+          <t>1705.3k usec</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
-          <t>14938.35</t>
+          <t>14938.35 usec</t>
         </is>
       </c>
       <c r="R4" s="1" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>647 usec</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr">
         <is>
-          <t>5327.3k</t>
+          <t>5327.3k usec</t>
         </is>
       </c>
       <c r="N5" s="1" t="inlineStr">
         <is>
-          <t>1253619.34</t>
+          <t>1253619.34 usec</t>
         </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>1261 usec</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>6556.3k</t>
+          <t>6556.3k usec</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
-          <t>74929.02</t>
+          <t>74929.02 usec</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
@@ -1073,32 +1073,32 @@
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5 msec</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2881 msec</t>
         </is>
       </c>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t>1274.55</t>
+          <t>1274.55 msec</t>
         </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>1383</t>
+          <t>1383 usec</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>1848.1k</t>
+          <t>1848.1k usec</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>11302.20</t>
+          <t>11302.20 usec</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
@@ -1195,32 +1195,32 @@
       </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11 msec</t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr">
         <is>
-          <t>2911</t>
+          <t>2911 msec</t>
         </is>
       </c>
       <c r="N7" s="1" t="inlineStr">
         <is>
-          <t>1255.77</t>
+          <t>1255.77 msec</t>
         </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>1386</t>
+          <t>1386 usec</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>2496.2k</t>
+          <t>2496.2k usec</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
         <is>
-          <t>55184.95</t>
+          <t>55184.95 usec</t>
         </is>
       </c>
       <c r="R7" s="1" t="inlineStr">
@@ -1317,32 +1317,32 @@
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>325 usec</t>
         </is>
       </c>
       <c r="M8" s="1" t="inlineStr">
         <is>
-          <t>9296.7k</t>
+          <t>9296.7k usec</t>
         </is>
       </c>
       <c r="N8" s="1" t="inlineStr">
         <is>
-          <t>1060430.31</t>
+          <t>1060430.31 usec</t>
         </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>1765</t>
+          <t>1765 usec</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>12929k</t>
+          <t>12929k usec</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t>1297209.56</t>
+          <t>1297209.56 usec</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
@@ -1439,32 +1439,32 @@
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>330 usec</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr">
         <is>
-          <t>5553.4k</t>
+          <t>5553.4k usec</t>
         </is>
       </c>
       <c r="N9" s="1" t="inlineStr">
         <is>
-          <t>1271092.60</t>
+          <t>1271092.60 usec</t>
         </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>1392</t>
+          <t>1392 usec</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>8060.7k</t>
+          <t>8060.7k usec</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
         <is>
-          <t>88738.80</t>
+          <t>88738.80 usec</t>
         </is>
       </c>
       <c r="R9" s="1" t="inlineStr">
@@ -1561,32 +1561,32 @@
       </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9 msec</t>
         </is>
       </c>
       <c r="M10" s="1" t="inlineStr">
         <is>
-          <t>3492</t>
+          <t>3492 msec</t>
         </is>
       </c>
       <c r="N10" s="1" t="inlineStr">
         <is>
-          <t>1275.43</t>
+          <t>1275.43 msec</t>
         </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>1418</t>
+          <t>1418 usec</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>2415.0k</t>
+          <t>2415.0k usec</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr">
         <is>
-          <t>8984.37</t>
+          <t>8984.37 usec</t>
         </is>
       </c>
       <c r="R10" s="1" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9 msec</t>
         </is>
       </c>
       <c r="M11" s="1" t="inlineStr">
         <is>
-          <t>2489</t>
+          <t>2489 msec</t>
         </is>
       </c>
       <c r="N11" s="1" t="inlineStr">
         <is>
-          <t>1277.69</t>
+          <t>1277.69 msec</t>
         </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>1393</t>
+          <t>1393 usec</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>620273</t>
+          <t>620273 usec</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t>3842.78</t>
+          <t>3842.78 usec</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
@@ -1805,32 +1805,32 @@
       </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6 msec</t>
         </is>
       </c>
       <c r="M12" s="1" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2500 msec</t>
         </is>
       </c>
       <c r="N12" s="1" t="inlineStr">
         <is>
-          <t>1272.65</t>
+          <t>1272.65 msec</t>
         </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>514 msec</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
         <is>
-          <t>15.82</t>
+          <t>15.82 msec</t>
         </is>
       </c>
       <c r="R12" s="1" t="inlineStr">
@@ -1927,32 +1927,32 @@
       </c>
       <c r="L13" s="1" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>1482 usec</t>
         </is>
       </c>
       <c r="M13" s="1" t="inlineStr">
         <is>
-          <t>2485.3k</t>
+          <t>2485.3k usec</t>
         </is>
       </c>
       <c r="N13" s="1" t="inlineStr">
         <is>
-          <t>1275156.71</t>
+          <t>1275156.71 usec</t>
         </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>1372</t>
+          <t>1372 usec</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>688717</t>
+          <t>688717 usec</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
         <is>
-          <t>9379.13</t>
+          <t>9379.13 usec</t>
         </is>
       </c>
       <c r="R13" s="1" t="inlineStr">
@@ -2049,32 +2049,32 @@
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="M14" s="1" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2449 msec</t>
         </is>
       </c>
       <c r="N14" s="1" t="inlineStr">
         <is>
-          <t>1270.54</t>
+          <t>1270.54 msec</t>
         </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>1487</t>
+          <t>1487 msec</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t>20.04</t>
+          <t>20.04 msec</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
@@ -2171,32 +2171,32 @@
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>330 usec</t>
         </is>
       </c>
       <c r="M15" s="1" t="inlineStr">
         <is>
-          <t>5232.0k</t>
+          <t>5232.0k usec</t>
         </is>
       </c>
       <c r="N15" s="1" t="inlineStr">
         <is>
-          <t>851725.78</t>
+          <t>851725.78 usec</t>
         </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>1567</t>
+          <t>1567 usec</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>8542.8k</t>
+          <t>8542.8k usec</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t>1357253.92</t>
+          <t>1357253.92 usec</t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
@@ -2293,32 +2293,32 @@
       </c>
       <c r="L16" s="1" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>306 usec</t>
         </is>
       </c>
       <c r="M16" s="1" t="inlineStr">
         <is>
-          <t>4194.9k</t>
+          <t>4194.9k usec</t>
         </is>
       </c>
       <c r="N16" s="1" t="inlineStr">
         <is>
-          <t>1211201.74</t>
+          <t>1211201.74 usec</t>
         </is>
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>1443 usec</t>
         </is>
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t>5451.8k</t>
+          <t>5451.8k usec</t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr">
         <is>
-          <t>193189.34</t>
+          <t>193189.34 usec</t>
         </is>
       </c>
       <c r="R16" s="1" t="inlineStr">
@@ -2415,32 +2415,32 @@
       </c>
       <c r="L17" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7 msec</t>
         </is>
       </c>
       <c r="M17" s="1" t="inlineStr">
         <is>
-          <t>2465</t>
+          <t>2465 msec</t>
         </is>
       </c>
       <c r="N17" s="1" t="inlineStr">
         <is>
-          <t>1274.15</t>
+          <t>1274.15 msec</t>
         </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>1594</t>
+          <t>1594 usec</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>1519.0k</t>
+          <t>1519.0k usec</t>
         </is>
       </c>
       <c r="Q17" s="1" t="inlineStr">
         <is>
-          <t>12287.02</t>
+          <t>12287.02 usec</t>
         </is>
       </c>
       <c r="R17" s="1" t="inlineStr">
@@ -2537,32 +2537,32 @@
       </c>
       <c r="L18" s="1" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>526 usec</t>
         </is>
       </c>
       <c r="M18" s="1" t="inlineStr">
         <is>
-          <t>5794.3k</t>
+          <t>5794.3k usec</t>
         </is>
       </c>
       <c r="N18" s="1" t="inlineStr">
         <is>
-          <t>1262881.16</t>
+          <t>1262881.16 usec</t>
         </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1230 usec</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>6902.5k</t>
+          <t>6902.5k usec</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
         <is>
-          <t>57778.46</t>
+          <t>57778.46 usec</t>
         </is>
       </c>
       <c r="R18" s="1" t="inlineStr">
@@ -2659,32 +2659,32 @@
       </c>
       <c r="L19" s="1" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>529 usec</t>
         </is>
       </c>
       <c r="M19" s="1" t="inlineStr">
         <is>
-          <t>3832.8k</t>
+          <t>3832.8k usec</t>
         </is>
       </c>
       <c r="N19" s="1" t="inlineStr">
         <is>
-          <t>1141353.26</t>
+          <t>1141353.26 usec</t>
         </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>1383</t>
+          <t>1383 usec</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>5156.5k</t>
+          <t>5156.5k usec</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr">
         <is>
-          <t>323333.12</t>
+          <t>323333.12 usec</t>
         </is>
       </c>
       <c r="R19" s="1" t="inlineStr">
@@ -2781,32 +2781,32 @@
       </c>
       <c r="L20" s="1" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>1090 usec</t>
         </is>
       </c>
       <c r="M20" s="1" t="inlineStr">
         <is>
-          <t>2536.8k</t>
+          <t>2536.8k usec</t>
         </is>
       </c>
       <c r="N20" s="1" t="inlineStr">
         <is>
-          <t>1268200.07</t>
+          <t>1268200.07 usec</t>
         </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>1429 msec</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
         <is>
-          <t>26.22</t>
+          <t>26.22 msec</t>
         </is>
       </c>
       <c r="R20" s="1" t="inlineStr">
@@ -2903,32 +2903,32 @@
       </c>
       <c r="L21" s="1" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>297 usec</t>
         </is>
       </c>
       <c r="M21" s="1" t="inlineStr">
         <is>
-          <t>5232.7k</t>
+          <t>5232.7k usec</t>
         </is>
       </c>
       <c r="N21" s="1" t="inlineStr">
         <is>
-          <t>687001.26</t>
+          <t>687001.26 usec</t>
         </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>6784</t>
+          <t>6784 msec</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
         <is>
-          <t>1844.93</t>
+          <t>1844.93 msec</t>
         </is>
       </c>
       <c r="R21" s="1" t="inlineStr">
@@ -3025,32 +3025,32 @@
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9 msec</t>
         </is>
       </c>
       <c r="M22" s="1" t="inlineStr">
         <is>
-          <t>2590</t>
+          <t>2590 msec</t>
         </is>
       </c>
       <c r="N22" s="1" t="inlineStr">
         <is>
-          <t>1245.47</t>
+          <t>1245.47 msec</t>
         </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>1262 usec</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t>2159.5k</t>
+          <t>2159.5k usec</t>
         </is>
       </c>
       <c r="Q22" s="1" t="inlineStr">
         <is>
-          <t>79003.52</t>
+          <t>79003.52 usec</t>
         </is>
       </c>
       <c r="R22" s="1" t="inlineStr">
@@ -3147,32 +3147,32 @@
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>801 usec</t>
         </is>
       </c>
       <c r="M23" s="1" t="inlineStr">
         <is>
-          <t>2483.8k</t>
+          <t>2483.8k usec</t>
         </is>
       </c>
       <c r="N23" s="1" t="inlineStr">
         <is>
-          <t>1271731.74</t>
+          <t>1271731.74 usec</t>
         </is>
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t>1393</t>
+          <t>1393 usec</t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>1582.5k</t>
+          <t>1582.5k usec</t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">
         <is>
-          <t>17702.64</t>
+          <t>17702.64 usec</t>
         </is>
       </c>
       <c r="R23" s="1" t="inlineStr">
